--- a/Threading overview.xlsx
+++ b/Threading overview.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mijn Projecten\Software\Git Hub\Multi-Threaded-Encryption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{CE2547E7-D4DD-4594-B47F-344490D75103}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E387E-44B1-4083-9E99-F66519309D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Block Thread" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,13 +91,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -158,13 +158,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -221,13 +221,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -288,13 +288,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -355,13 +355,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -377,7 +377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="381000"/>
+          <a:off x="1219200" y="1905000"/>
           <a:ext cx="1219200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -418,13 +418,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -469,10 +469,46 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Barrier</a:t>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Event</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wait</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Handle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -481,13 +517,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -532,10 +568,46 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Barrier</a:t>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Event</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wait</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Handle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -544,13 +616,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -566,7 +638,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="381000"/>
+          <a:off x="7315200" y="2857500"/>
           <a:ext cx="1219200" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -615,13 +687,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -684,13 +756,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -772,13 +844,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -860,13 +932,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -923,13 +995,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1000,13 +1072,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1068,13 +1140,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1134,15 +1206,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1158,8 +1230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9734550" y="2857500"/>
-          <a:ext cx="3067050" cy="190500"/>
+          <a:off x="9753600" y="2857500"/>
+          <a:ext cx="3048000" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1204,13 +1276,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1267,13 +1339,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1328,13 +1400,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1391,13 +1463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1452,13 +1524,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1521,13 +1593,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1597,13 +1669,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1659,6 +1731,138 @@
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t>Stop thread</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rechthoek 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629B6F09-1CE4-47E2-8CF7-0B39FFE07BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="2857500"/>
+          <a:ext cx="1219200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EventWaitHandle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Pijl: rechts 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2F7052-4349-4CB4-848A-FC505BC21C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1695450" y="2419350"/>
+          <a:ext cx="571500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1963,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
